--- a/public/laporan_01-02-2024 to 29-02-2024.xlsx
+++ b/public/laporan_01-02-2024 to 29-02-2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>LAPORAN</t>
   </si>
@@ -47,49 +47,25 @@
     <t>SALDO</t>
   </si>
   <si>
+    <t>13-02-2024</t>
+  </si>
+  <si>
+    <t>Saldo awal jakarta</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Rp 10.000.000</t>
+  </si>
+  <si>
     <t>07-02-2024</t>
   </si>
   <si>
-    <t>Pembuatan Website</t>
-  </si>
-  <si>
-    <t>Rp 50.000.000</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Rp -40.000.000</t>
-  </si>
-  <si>
-    <t>Rp 100.000</t>
-  </si>
-  <si>
-    <t>Rp -40.100.000</t>
-  </si>
-  <si>
-    <t>Pembayaran utang sebesar Rp 72.150.000</t>
-  </si>
-  <si>
-    <t>Rp 72.150.000</t>
-  </si>
-  <si>
-    <t>Rp -112.250.000</t>
-  </si>
-  <si>
-    <t>Pembayaran Termin 1</t>
-  </si>
-  <si>
-    <t>Rp 20.000.000</t>
-  </si>
-  <si>
-    <t>Rp -92.250.000</t>
-  </si>
-  <si>
-    <t>Baju S</t>
-  </si>
-  <si>
-    <t>Rp -92.350.000</t>
+    <t>Pembuatan Website Testing</t>
+  </si>
+  <si>
+    <t>Rp 0</t>
   </si>
   <si>
     <t>Total Saldo</t>
@@ -509,7 +485,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F9" sqref="F9"/>
@@ -519,10 +495,10 @@
   <cols>
     <col min="1" max="1" width="5.713" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="48.131" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="32.849" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customHeight="1" ht="30">
@@ -648,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -656,100 +632,40 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -758,7 +674,7 @@
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A3:F6"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
